--- a/data_polishing.xlsx
+++ b/data_polishing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="25120" windowHeight="14340" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="25120" windowHeight="14340" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Polish 0.05" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Polish 1" sheetId="4" r:id="rId3"/>
     <sheet name="Averages" sheetId="6" r:id="rId4"/>
     <sheet name="Areas" sheetId="5" r:id="rId5"/>
+    <sheet name="Roughness" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="42">
   <si>
     <t>Immediately Following Indentation</t>
   </si>
@@ -111,16 +112,62 @@
   <si>
     <t>Percent Difference</t>
   </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>Sz</t>
+  </si>
+  <si>
+    <t>Spc</t>
+  </si>
+  <si>
+    <t>Sdr</t>
+  </si>
+  <si>
+    <t>Differently polished samples.</t>
+  </si>
+  <si>
+    <t>Caila's indents</t>
+  </si>
+  <si>
+    <t>Newly polished indents</t>
+  </si>
+  <si>
+    <t>µm</t>
+  </si>
+  <si>
+    <t>1/mm</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>None of these are conclusively similar to the polishes shown.</t>
+  </si>
+  <si>
+    <t>Looks to be between 0.5 and 1 for values.</t>
+  </si>
+  <si>
+    <t>Looks to be a lot better polished than 0.05.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000_ "/>
+    <numFmt numFmtId="167" formatCode="0.0000_ "/>
+    <numFmt numFmtId="168" formatCode="0.000000_ "/>
+    <numFmt numFmtId="169" formatCode="0.00000_ "/>
+    <numFmt numFmtId="170" formatCode="0.00_ "/>
+    <numFmt numFmtId="171" formatCode="0_ "/>
+    <numFmt numFmtId="172" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,8 +237,21 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,12 +318,134 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -361,7 +543,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -406,12 +588,6 @@
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -423,6 +599,138 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -905,11 +1213,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122244968"/>
-        <c:axId val="2122250456"/>
+        <c:axId val="2115330312"/>
+        <c:axId val="2115324808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122244968"/>
+        <c:axId val="2115330312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,12 +1246,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122250456"/>
+        <c:crossAx val="2115324808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122250456"/>
+        <c:axId val="2115324808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -975,7 +1283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122244968"/>
+        <c:crossAx val="2115330312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1385,11 +1693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123730232"/>
-        <c:axId val="2123732808"/>
+        <c:axId val="-2141584776"/>
+        <c:axId val="2113014408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123730232"/>
+        <c:axId val="-2141584776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,12 +1726,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123732808"/>
+        <c:crossAx val="2113014408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123732808"/>
+        <c:axId val="2113014408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123730232"/>
+        <c:crossAx val="-2141584776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1863,11 +2171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121917960"/>
-        <c:axId val="-2147150424"/>
+        <c:axId val="2115267240"/>
+        <c:axId val="2115261736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121917960"/>
+        <c:axId val="2115267240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,12 +2204,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147150424"/>
+        <c:crossAx val="2115261736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147150424"/>
+        <c:axId val="2115261736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1933,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121917960"/>
+        <c:crossAx val="2115267240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2343,11 +2651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144317544"/>
-        <c:axId val="2101876824"/>
+        <c:axId val="2115210280"/>
+        <c:axId val="2115204776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144317544"/>
+        <c:axId val="2115210280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,12 +2684,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101876824"/>
+        <c:crossAx val="2115204776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101876824"/>
+        <c:axId val="2115204776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144317544"/>
+        <c:crossAx val="2115210280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2932,18 +3240,18 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="E5" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44" t="s">
+      <c r="E5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
@@ -5564,18 +5872,18 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="E5" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44" t="s">
+      <c r="E5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
@@ -6801,18 +7109,18 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45" t="s">
+      <c r="E5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="29"/>
@@ -9401,7 +9709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="G15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -9570,15 +9878,15 @@
         <f>'Polish 0.05'!E66</f>
         <v>0</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="44">
         <f>'Polish 0.05'!E76</f>
         <v>0.2</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6" s="44">
         <f>'Polish 0.05'!E77</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="44">
         <f>'Polish 0.05'!E78</f>
         <v>0.27322660517925001</v>
       </c>
@@ -9623,15 +9931,15 @@
         <f>'Polish 0.5'!E18</f>
         <v>0</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="44">
         <f>'Polish 0.5'!E28</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="S7" s="46">
+      <c r="S7" s="44">
         <f>'Polish 0.5'!E29</f>
         <v>2</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7" s="44">
         <f>'Polish 0.5'!E30</f>
         <v>0.28259708263021949</v>
       </c>
@@ -9664,15 +9972,15 @@
         <f>'Polish 1'!E18</f>
         <v>0</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="45">
         <f>'Polish 1'!E28</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="45">
         <f>'Polish 1'!E29</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="45">
         <f>'Polish 1'!E30</f>
         <v>0.11023963796102461</v>
       </c>
@@ -9857,15 +10165,15 @@
         <f>'Polish 0.05'!I54</f>
         <v>0</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="46">
         <f>'Polish 0.05'!I64</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="46">
         <f>'Polish 0.05'!I65</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="46">
         <f>'Polish 0.05'!I66</f>
         <v>0.16666666666666666</v>
       </c>
@@ -9910,15 +10218,15 @@
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
-      <c r="O11" s="48">
+      <c r="O11" s="46">
         <f>'Polish 0.5'!I16</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="46">
         <f>'Polish 0.5'!I17</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="46">
         <f>'Polish 0.5'!I18</f>
         <v>0.16666666666666666</v>
       </c>
@@ -9951,15 +10259,15 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="47">
         <f>'Polish 1'!I16</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="47">
         <f>'Polish 1'!I17</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="47">
         <f>'Polish 1'!I18</f>
         <v>0.16666666666666666</v>
       </c>
@@ -10036,197 +10344,197 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="13" spans="2:23" s="53" customFormat="1">
-      <c r="B13" s="50" t="s">
+    <row r="13" spans="2:23" s="51" customFormat="1">
+      <c r="B13" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="56">
-        <v>0</v>
-      </c>
-      <c r="D13" s="56">
-        <v>0</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="56">
-        <v>0</v>
-      </c>
-      <c r="G13" s="56">
-        <v>0</v>
-      </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="56">
-        <v>0</v>
-      </c>
-      <c r="J13" s="56">
-        <v>0</v>
-      </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="56">
-        <v>0</v>
-      </c>
-      <c r="M13" s="56">
-        <v>0</v>
-      </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54" t="e">
+      <c r="C13" s="54">
+        <v>0</v>
+      </c>
+      <c r="D13" s="54">
+        <v>0</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="54">
+        <v>0</v>
+      </c>
+      <c r="G13" s="54">
+        <v>0</v>
+      </c>
+      <c r="H13" s="52"/>
+      <c r="I13" s="54">
+        <v>0</v>
+      </c>
+      <c r="J13" s="54">
+        <v>0</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="54">
+        <v>0</v>
+      </c>
+      <c r="M13" s="54">
+        <v>0</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52" t="e">
         <f t="shared" ref="D13:V15" si="0">(O10-O6)/O6*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="54" t="e">
+      <c r="P13" s="52" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54">
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52">
         <f t="shared" si="0"/>
         <v>-28.57142857142858</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="53">
         <f t="shared" si="0"/>
         <v>47.619047619047613</v>
       </c>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54">
+      <c r="T13" s="52"/>
+      <c r="U13" s="52">
         <f t="shared" si="0"/>
         <v>-41.666666666666664</v>
       </c>
-      <c r="V13" s="55">
+      <c r="V13" s="53">
         <f t="shared" si="0"/>
         <v>37.037037037037024</v>
       </c>
-      <c r="W13" s="54"/>
-    </row>
-    <row r="14" spans="2:23" s="53" customFormat="1">
-      <c r="B14" s="50"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54" t="e">
+      <c r="W13" s="52"/>
+    </row>
+    <row r="14" spans="2:23" s="51" customFormat="1">
+      <c r="B14" s="48"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="54" t="e">
+      <c r="P14" s="52" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54">
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="53">
         <f t="shared" si="0"/>
         <v>5.555555555555558</v>
       </c>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54">
+      <c r="T14" s="52"/>
+      <c r="U14" s="52">
         <f t="shared" si="0"/>
         <v>-35.71428571428573</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="53">
         <f t="shared" si="0"/>
         <v>7.8125000000000098</v>
       </c>
-      <c r="W14" s="54"/>
-    </row>
-    <row r="15" spans="2:23" s="53" customFormat="1">
-      <c r="B15" s="50"/>
-      <c r="C15" s="54" t="e">
+      <c r="W14" s="52"/>
+    </row>
+    <row r="15" spans="2:23" s="51" customFormat="1">
+      <c r="B15" s="48"/>
+      <c r="C15" s="52" t="e">
         <f>(C12-C8)/C8*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="54" t="e">
+      <c r="D15" s="52" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54">
+      <c r="E15" s="52"/>
+      <c r="F15" s="52">
         <f t="shared" si="0"/>
         <v>250.00000000000006</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="53">
         <f t="shared" si="0"/>
         <v>175.00000000000006</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54">
+      <c r="H15" s="52"/>
+      <c r="I15" s="52">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="53">
         <f t="shared" si="0"/>
         <v>137.50000000000003</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54">
+      <c r="K15" s="52"/>
+      <c r="L15" s="52">
         <f t="shared" si="0"/>
         <v>54.545454545454554</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="53">
         <f t="shared" si="0"/>
         <v>84.999999999999972</v>
       </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54">
+      <c r="N15" s="52"/>
+      <c r="O15" s="52">
         <f t="shared" si="0"/>
         <v>7.1428571428571317</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="53">
         <f t="shared" si="0"/>
         <v>24.242424242424242</v>
       </c>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54">
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52">
         <f t="shared" si="0"/>
         <v>-19.230769230769237</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="53">
         <f t="shared" si="0"/>
         <v>23.913043478260875</v>
       </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54">
+      <c r="T15" s="52"/>
+      <c r="U15" s="52">
         <f t="shared" si="0"/>
         <v>-13.793103448275865</v>
       </c>
-      <c r="V15" s="55">
+      <c r="V15" s="53">
         <f t="shared" si="0"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="W15" s="54"/>
-    </row>
-    <row r="16" spans="2:23" s="53" customFormat="1">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
+      <c r="W15" s="52"/>
+    </row>
+    <row r="16" spans="2:23" s="51" customFormat="1">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10244,7 +10552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -10633,4 +10941,1875 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AC32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="17" max="17" width="11.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:29">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.05</v>
+      </c>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="E5" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="62"/>
+      <c r="Y5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="E6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="62"/>
+      <c r="Y6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" s="65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="C7">
+        <v>9807</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="68">
+        <v>7.7890323944300538E-2</v>
+      </c>
+      <c r="F7" s="68">
+        <v>10.818500413734</v>
+      </c>
+      <c r="G7" s="68">
+        <v>1193.2712442480718</v>
+      </c>
+      <c r="H7" s="69">
+        <v>0.11377770646899865</v>
+      </c>
+      <c r="I7" s="70">
+        <v>8.2515677532014331E-2</v>
+      </c>
+      <c r="J7" s="70">
+        <v>20.196799596305937</v>
+      </c>
+      <c r="K7" s="70">
+        <v>950.48514099059321</v>
+      </c>
+      <c r="L7" s="71">
+        <v>0.2910785555524209</v>
+      </c>
+      <c r="M7" s="72">
+        <v>5.8628669037078127E-2</v>
+      </c>
+      <c r="N7" s="72">
+        <v>25.803601602092385</v>
+      </c>
+      <c r="O7" s="72">
+        <v>482.32351577573667</v>
+      </c>
+      <c r="P7" s="73">
+        <v>0.38308148156801947</v>
+      </c>
+      <c r="Q7" s="57">
+        <v>2942</v>
+      </c>
+      <c r="R7" s="57">
+        <v>1</v>
+      </c>
+      <c r="S7" s="74">
+        <v>1.2142392395728063E-2</v>
+      </c>
+      <c r="T7" s="74">
+        <v>0.65970004925475223</v>
+      </c>
+      <c r="U7" s="74">
+        <v>1497.9091531378604</v>
+      </c>
+      <c r="V7" s="75">
+        <v>5.4458362548583938E-3</v>
+      </c>
+      <c r="W7" s="57">
+        <v>2942</v>
+      </c>
+      <c r="X7" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="76">
+        <v>5.8516002910331252E-2</v>
+      </c>
+      <c r="Z7" s="76">
+        <v>1.1674992492771707</v>
+      </c>
+      <c r="AA7" s="76">
+        <v>1059.5057999865999</v>
+      </c>
+      <c r="AB7" s="77">
+        <v>5.4476173125090899E-3</v>
+      </c>
+      <c r="AC7" s="57"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="68">
+        <v>7.3714240873591783E-2</v>
+      </c>
+      <c r="F8" s="68">
+        <v>16.497098840773106</v>
+      </c>
+      <c r="G8" s="68">
+        <v>1462.9112609051056</v>
+      </c>
+      <c r="H8" s="69">
+        <v>0.41630502743272157</v>
+      </c>
+      <c r="I8" s="70">
+        <v>8.0894231729970026E-2</v>
+      </c>
+      <c r="J8" s="70">
+        <v>21.106698113726452</v>
+      </c>
+      <c r="K8" s="70">
+        <v>1492.2699180780064</v>
+      </c>
+      <c r="L8" s="71">
+        <v>0.63637715330783351</v>
+      </c>
+      <c r="M8" s="72">
+        <v>5.7849926196781462E-2</v>
+      </c>
+      <c r="N8" s="72">
+        <v>1.9757999325520359</v>
+      </c>
+      <c r="O8" s="72">
+        <v>705.12830129144936</v>
+      </c>
+      <c r="P8" s="78">
+        <v>1.1829371856154403E-2</v>
+      </c>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="57">
+        <v>2</v>
+      </c>
+      <c r="S8" s="74">
+        <v>4.5209741599358436E-2</v>
+      </c>
+      <c r="T8" s="74">
+        <v>3.0791998142376542</v>
+      </c>
+      <c r="U8" s="74">
+        <v>1657.9952838914164</v>
+      </c>
+      <c r="V8" s="80">
+        <v>2.9207618449879291E-2</v>
+      </c>
+      <c r="W8" s="79"/>
+      <c r="X8" s="57">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="76">
+        <v>5.5950041801232649E-2</v>
+      </c>
+      <c r="Z8" s="76">
+        <v>1.1795000318670645</v>
+      </c>
+      <c r="AA8" s="76">
+        <v>774.73810431956372</v>
+      </c>
+      <c r="AB8" s="77">
+        <v>3.3562414744188196E-3</v>
+      </c>
+      <c r="AC8" s="57"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="68">
+        <v>7.0443108554271897E-2</v>
+      </c>
+      <c r="F9" s="68">
+        <v>25.21170063118916</v>
+      </c>
+      <c r="G9" s="68">
+        <v>1640.6915626682355</v>
+      </c>
+      <c r="H9" s="69">
+        <v>0.9342138296395277</v>
+      </c>
+      <c r="I9" s="70">
+        <v>0.10861924694621936</v>
+      </c>
+      <c r="J9" s="70">
+        <v>26.986699594999664</v>
+      </c>
+      <c r="K9" s="70">
+        <v>2142.2719863964803</v>
+      </c>
+      <c r="L9" s="70">
+        <v>5.9087146610976271</v>
+      </c>
+      <c r="M9" s="72">
+        <v>4.3303070080435532E-2</v>
+      </c>
+      <c r="N9" s="72">
+        <v>0.94309996256924933</v>
+      </c>
+      <c r="O9" s="72">
+        <v>425.8536370658685</v>
+      </c>
+      <c r="P9" s="81">
+        <v>1.3768383478471868E-3</v>
+      </c>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="57">
+        <v>3</v>
+      </c>
+      <c r="S9" s="74">
+        <v>1.2987948435852326E-2</v>
+      </c>
+      <c r="T9" s="74">
+        <v>0.84459998106467538</v>
+      </c>
+      <c r="U9" s="74">
+        <v>1148.9124263490974</v>
+      </c>
+      <c r="V9" s="75">
+        <v>3.099170158610498E-3</v>
+      </c>
+      <c r="W9" s="82"/>
+      <c r="X9" s="57">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="76">
+        <v>5.788215355194818E-2</v>
+      </c>
+      <c r="Z9" s="76">
+        <v>1.9670005713123828</v>
+      </c>
+      <c r="AA9" s="76">
+        <v>824.69180897192166</v>
+      </c>
+      <c r="AB9" s="77">
+        <v>3.0171983280657955E-3</v>
+      </c>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="68">
+        <v>0.36263614461847166</v>
+      </c>
+      <c r="F10" s="68">
+        <v>12.633899132197257</v>
+      </c>
+      <c r="G10" s="68">
+        <v>2861.0613597429892</v>
+      </c>
+      <c r="H10" s="68">
+        <v>2.2774194015748241</v>
+      </c>
+      <c r="I10" s="70">
+        <v>6.35225075434937E-2</v>
+      </c>
+      <c r="J10" s="70">
+        <v>22.833299226476811</v>
+      </c>
+      <c r="K10" s="70">
+        <v>537.60313849275167</v>
+      </c>
+      <c r="L10" s="71">
+        <v>0.79548773365140724</v>
+      </c>
+      <c r="M10" s="72">
+        <v>6.2344363956122875E-2</v>
+      </c>
+      <c r="N10" s="72">
+        <v>16.68010008870624</v>
+      </c>
+      <c r="O10" s="72">
+        <v>881.8864627101334</v>
+      </c>
+      <c r="P10" s="72">
+        <v>1.3769958824823032</v>
+      </c>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="57">
+        <v>4</v>
+      </c>
+      <c r="S10" s="74">
+        <v>1.252152539528658E-2</v>
+      </c>
+      <c r="T10" s="74">
+        <v>0.54320003073371481</v>
+      </c>
+      <c r="U10" s="74">
+        <v>1278.4856139225096</v>
+      </c>
+      <c r="V10" s="75">
+        <v>3.3498110929810476E-3</v>
+      </c>
+      <c r="W10" s="83"/>
+      <c r="X10" s="57">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="76">
+        <v>5.4255889134972229E-2</v>
+      </c>
+      <c r="Z10" s="76">
+        <v>1.5325003914767876</v>
+      </c>
+      <c r="AA10" s="76">
+        <v>883.27428383903623</v>
+      </c>
+      <c r="AB10" s="77">
+        <v>5.8215769193090683E-3</v>
+      </c>
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="68">
+        <v>0.1018595296103279</v>
+      </c>
+      <c r="F11" s="68">
+        <v>19.728200641111471</v>
+      </c>
+      <c r="G11" s="68">
+        <v>1183.5119223503834</v>
+      </c>
+      <c r="H11" s="68">
+        <v>1.3289708959725188</v>
+      </c>
+      <c r="I11" s="70">
+        <v>5.6491994958984888E-2</v>
+      </c>
+      <c r="J11" s="70">
+        <v>26.920399250229821</v>
+      </c>
+      <c r="K11" s="70">
+        <v>460.6504050602021</v>
+      </c>
+      <c r="L11" s="71">
+        <v>0.32311618460848313</v>
+      </c>
+      <c r="M11" s="72">
+        <v>4.7670534252964962E-2</v>
+      </c>
+      <c r="N11" s="72">
+        <v>10.744500286818948</v>
+      </c>
+      <c r="O11" s="72">
+        <v>737.22014277939104</v>
+      </c>
+      <c r="P11" s="78">
+        <v>4.3283111496823734E-2</v>
+      </c>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="57">
+        <v>5</v>
+      </c>
+      <c r="S11" s="74">
+        <v>2.6339084083337284E-2</v>
+      </c>
+      <c r="T11" s="74">
+        <v>5.6298003983101808</v>
+      </c>
+      <c r="U11" s="74">
+        <v>1438.0665341393931</v>
+      </c>
+      <c r="V11" s="80">
+        <v>3.0680012244131971E-2</v>
+      </c>
+      <c r="W11" s="79"/>
+      <c r="X11" s="57">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="76">
+        <v>5.2014154696554266E-2</v>
+      </c>
+      <c r="Z11" s="76">
+        <v>1.7325000953860581</v>
+      </c>
+      <c r="AA11" s="76">
+        <v>742.23200397201083</v>
+      </c>
+      <c r="AB11" s="77">
+        <v>6.5583523613284012E-3</v>
+      </c>
+      <c r="AC11" s="57"/>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="68">
+        <v>0.11263309631911224</v>
+      </c>
+      <c r="F12" s="68">
+        <v>29.398501283139922</v>
+      </c>
+      <c r="G12" s="68">
+        <v>2751.2026850956418</v>
+      </c>
+      <c r="H12" s="84">
+        <v>11.096365599660619</v>
+      </c>
+      <c r="I12" s="70">
+        <v>0.42804373405640239</v>
+      </c>
+      <c r="J12" s="70">
+        <v>12.314599189267028</v>
+      </c>
+      <c r="K12" s="70">
+        <v>1321.5167219872735</v>
+      </c>
+      <c r="L12" s="70">
+        <v>2.583159503986336</v>
+      </c>
+      <c r="M12" s="72">
+        <v>4.2291599457398049E-2</v>
+      </c>
+      <c r="N12" s="72">
+        <v>1.1498000276333187</v>
+      </c>
+      <c r="O12" s="72">
+        <v>801.58327852321793</v>
+      </c>
+      <c r="P12" s="81">
+        <v>3.6638152993249129E-3</v>
+      </c>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="57">
+        <v>6</v>
+      </c>
+      <c r="S12" s="74">
+        <v>1.1765611638739716E-2</v>
+      </c>
+      <c r="T12" s="74">
+        <v>0.54480000244438997</v>
+      </c>
+      <c r="U12" s="74">
+        <v>1359.3446996176199</v>
+      </c>
+      <c r="V12" s="75">
+        <v>3.7895915902075306E-3</v>
+      </c>
+      <c r="W12" s="82"/>
+      <c r="X12" s="57">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="76">
+        <v>5.2632889143907312E-2</v>
+      </c>
+      <c r="Z12" s="76">
+        <v>1.1884999366884585</v>
+      </c>
+      <c r="AA12" s="76">
+        <v>778.76318440028456</v>
+      </c>
+      <c r="AB12" s="77">
+        <v>5.4458326341724206E-3</v>
+      </c>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="68">
+        <v>7.0406796336998853E-2</v>
+      </c>
+      <c r="F13" s="68">
+        <v>12.660198990488425</v>
+      </c>
+      <c r="G13" s="68">
+        <v>1202.086853186277</v>
+      </c>
+      <c r="H13" s="69">
+        <v>0.11872122601521107</v>
+      </c>
+      <c r="I13" s="70">
+        <v>5.634094177641167E-2</v>
+      </c>
+      <c r="J13" s="70">
+        <v>1.6556000446144026</v>
+      </c>
+      <c r="K13" s="70">
+        <v>607.28678732441495</v>
+      </c>
+      <c r="L13" s="85">
+        <v>5.8516848282887945E-3</v>
+      </c>
+      <c r="M13" s="72">
+        <v>0.11728731276789928</v>
+      </c>
+      <c r="N13" s="72">
+        <v>21.660600395989604</v>
+      </c>
+      <c r="O13" s="72">
+        <v>384.51382715855891</v>
+      </c>
+      <c r="P13" s="73">
+        <v>0.69089611193046818</v>
+      </c>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="57">
+        <v>7</v>
+      </c>
+      <c r="S13" s="74">
+        <v>1.1592441246156559E-2</v>
+      </c>
+      <c r="T13" s="74">
+        <v>0.43329998788976809</v>
+      </c>
+      <c r="U13" s="74">
+        <v>1346.8396272447942</v>
+      </c>
+      <c r="V13" s="75">
+        <v>3.9668123740606021E-3</v>
+      </c>
+      <c r="W13" s="86"/>
+      <c r="X13" s="57">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="76">
+        <v>5.1533589931771179E-2</v>
+      </c>
+      <c r="Z13" s="76">
+        <v>1.4300003385869786</v>
+      </c>
+      <c r="AA13" s="76">
+        <v>871.39205179095541</v>
+      </c>
+      <c r="AB13" s="77">
+        <v>4.0942292113905765E-3</v>
+      </c>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="68">
+        <v>0.41746432145868356</v>
+      </c>
+      <c r="F14" s="68">
+        <v>22.148598873172887</v>
+      </c>
+      <c r="G14" s="68">
+        <v>5892.6922582053749</v>
+      </c>
+      <c r="H14" s="68">
+        <v>6.4561660247951149</v>
+      </c>
+      <c r="I14" s="70">
+        <v>5.0772888740618964E-2</v>
+      </c>
+      <c r="J14" s="70">
+        <v>1.1667000308079878</v>
+      </c>
+      <c r="K14" s="70">
+        <v>581.53891855874758</v>
+      </c>
+      <c r="L14" s="85">
+        <v>4.0619110887536447E-3</v>
+      </c>
+      <c r="M14" s="72">
+        <v>0.86033251767504892</v>
+      </c>
+      <c r="N14" s="72">
+        <v>20.702700567198917</v>
+      </c>
+      <c r="O14" s="72">
+        <v>6254.2872998585726</v>
+      </c>
+      <c r="P14" s="72">
+        <v>9.3619823634141426</v>
+      </c>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="57">
+        <v>8</v>
+      </c>
+      <c r="S14" s="74">
+        <v>1.8517395935938447E-2</v>
+      </c>
+      <c r="T14" s="74">
+        <v>0.54869997256901115</v>
+      </c>
+      <c r="U14" s="74">
+        <v>2194.4867693927586</v>
+      </c>
+      <c r="V14" s="80">
+        <v>1.0761918418975114E-2</v>
+      </c>
+      <c r="W14" s="83"/>
+      <c r="X14" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="76">
+        <v>5.6288724971639906E-2</v>
+      </c>
+      <c r="Z14" s="76">
+        <v>2.2705007722834125</v>
+      </c>
+      <c r="AA14" s="76">
+        <v>963.62311584847509</v>
+      </c>
+      <c r="AB14" s="87">
+        <v>1.1349072972743457E-2</v>
+      </c>
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="68">
+        <v>6.9811869885393646E-2</v>
+      </c>
+      <c r="F15" s="68">
+        <v>2.3146999410528224</v>
+      </c>
+      <c r="G15" s="68">
+        <v>1281.0161730248446</v>
+      </c>
+      <c r="H15" s="88">
+        <v>3.2583992610928592E-2</v>
+      </c>
+      <c r="I15" s="70">
+        <v>0.10340999173180337</v>
+      </c>
+      <c r="J15" s="70">
+        <v>23.389498892356642</v>
+      </c>
+      <c r="K15" s="70">
+        <v>1504.5829248612222</v>
+      </c>
+      <c r="L15" s="70">
+        <v>6.7529357183096224</v>
+      </c>
+      <c r="M15" s="72">
+        <v>5.7149518036058951E-2</v>
+      </c>
+      <c r="N15" s="72">
+        <v>23.221798983286135</v>
+      </c>
+      <c r="O15" s="72">
+        <v>630.51722365066792</v>
+      </c>
+      <c r="P15" s="73">
+        <v>0.54793293983050906</v>
+      </c>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="57">
+        <v>9</v>
+      </c>
+      <c r="S15" s="74">
+        <v>1.5820454901748965E-2</v>
+      </c>
+      <c r="T15" s="74">
+        <v>0.60730002360287472</v>
+      </c>
+      <c r="U15" s="74">
+        <v>1426.7774228307451</v>
+      </c>
+      <c r="V15" s="75">
+        <v>6.5590894049298853E-3</v>
+      </c>
+      <c r="W15" s="86"/>
+      <c r="X15" s="57">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="76">
+        <v>5.242682766085429E-2</v>
+      </c>
+      <c r="Z15" s="76">
+        <v>7.8215007306425832</v>
+      </c>
+      <c r="AA15" s="76">
+        <v>945.44340946940645</v>
+      </c>
+      <c r="AB15" s="87">
+        <v>8.6561637758564736E-2</v>
+      </c>
+      <c r="AC15" s="57"/>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="89">
+        <v>10</v>
+      </c>
+      <c r="S16" s="74">
+        <v>1.4769983474751011E-2</v>
+      </c>
+      <c r="T16" s="74">
+        <v>0.89579998530098237</v>
+      </c>
+      <c r="U16" s="74">
+        <v>1391.6067761982597</v>
+      </c>
+      <c r="V16" s="75">
+        <v>5.0197728313521317E-3</v>
+      </c>
+      <c r="W16" s="86"/>
+      <c r="X16" s="89">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="76">
+        <v>5.6500758936785765E-2</v>
+      </c>
+      <c r="Z16" s="76">
+        <v>1.3250000847619958</v>
+      </c>
+      <c r="AA16" s="76">
+        <v>780.88281670113872</v>
+      </c>
+      <c r="AB16" s="77">
+        <v>5.336243190931178E-3</v>
+      </c>
+      <c r="AC16" s="57"/>
+    </row>
+    <row r="17" spans="3:28">
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="75"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+    </row>
+    <row r="18" spans="3:28">
+      <c r="C18">
+        <v>2942</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="68">
+        <v>3.785425756272446E-2</v>
+      </c>
+      <c r="F18" s="68">
+        <v>1.7761999515641946</v>
+      </c>
+      <c r="G18" s="68">
+        <v>1349.9769640365439</v>
+      </c>
+      <c r="H18" s="88">
+        <v>3.1185024816216877E-2</v>
+      </c>
+      <c r="I18" s="70">
+        <v>1.746097223433845E-2</v>
+      </c>
+      <c r="J18" s="70">
+        <v>2.3965999389474746</v>
+      </c>
+      <c r="K18" s="70">
+        <v>1003.201636458297</v>
+      </c>
+      <c r="L18" s="91">
+        <v>3.4914631495902571E-2</v>
+      </c>
+      <c r="M18" s="72">
+        <v>1.5193969021069655E-2</v>
+      </c>
+      <c r="N18" s="72">
+        <v>1.6802000573079567</v>
+      </c>
+      <c r="O18" s="72">
+        <v>791.28935470493911</v>
+      </c>
+      <c r="P18" s="78">
+        <v>1.1996327423511088E-2</v>
+      </c>
+      <c r="Q18" s="89">
+        <v>4903</v>
+      </c>
+      <c r="R18" s="57">
+        <v>1</v>
+      </c>
+      <c r="S18" s="74">
+        <v>1.4779465934140517E-2</v>
+      </c>
+      <c r="T18" s="74">
+        <v>0.51500001063686796</v>
+      </c>
+      <c r="U18" s="74">
+        <v>801.25788383947463</v>
+      </c>
+      <c r="V18" s="75">
+        <v>2.0137316327057952E-3</v>
+      </c>
+      <c r="W18" s="89">
+        <v>9807</v>
+      </c>
+      <c r="X18" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="76">
+        <v>7.7517371083670072E-2</v>
+      </c>
+      <c r="Z18" s="76">
+        <v>27.475498427520506</v>
+      </c>
+      <c r="AA18" s="76">
+        <v>920.29460310475565</v>
+      </c>
+      <c r="AB18" s="92">
+        <v>0.23426495733493069</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="68">
+        <v>5.9963674119459881E-2</v>
+      </c>
+      <c r="F19" s="68">
+        <v>15.910900401649997</v>
+      </c>
+      <c r="G19" s="68">
+        <v>1582.5175441285637</v>
+      </c>
+      <c r="H19" s="68">
+        <v>1.023241535741469</v>
+      </c>
+      <c r="I19" s="70">
+        <v>2.5533153039363227E-2</v>
+      </c>
+      <c r="J19" s="70">
+        <v>1.7095999282901175</v>
+      </c>
+      <c r="K19" s="70">
+        <v>816.67010840364117</v>
+      </c>
+      <c r="L19" s="91">
+        <v>1.153023549661647E-2</v>
+      </c>
+      <c r="M19" s="72">
+        <v>2.086098361016776E-2</v>
+      </c>
+      <c r="N19" s="72">
+        <v>0.95710004188731546</v>
+      </c>
+      <c r="O19" s="72">
+        <v>748.02738702698377</v>
+      </c>
+      <c r="P19" s="81">
+        <v>2.5800633725112654E-3</v>
+      </c>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="57">
+        <v>2</v>
+      </c>
+      <c r="S19" s="74">
+        <v>2.1094960705989409E-2</v>
+      </c>
+      <c r="T19" s="74">
+        <v>0.50040000587614486</v>
+      </c>
+      <c r="U19" s="74">
+        <v>769.00915453335836</v>
+      </c>
+      <c r="V19" s="75">
+        <v>1.9894393779682495E-3</v>
+      </c>
+      <c r="W19" s="82"/>
+      <c r="X19" s="57">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="76">
+        <v>0.10117013494450762</v>
+      </c>
+      <c r="Z19" s="76">
+        <v>26.829498892766424</v>
+      </c>
+      <c r="AA19" s="76">
+        <v>1979.4792306825532</v>
+      </c>
+      <c r="AB19" s="76">
+        <v>6.7282274055775151</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="68">
+        <v>4.0025353297744981E-2</v>
+      </c>
+      <c r="F20" s="68">
+        <v>1.7897000361699611</v>
+      </c>
+      <c r="G20" s="68">
+        <v>1178.1341384231289</v>
+      </c>
+      <c r="H20" s="88">
+        <v>1.4584063566332794E-2</v>
+      </c>
+      <c r="I20" s="70">
+        <v>3.327301033958107E-2</v>
+      </c>
+      <c r="J20" s="70">
+        <v>4.2244000724167563</v>
+      </c>
+      <c r="K20" s="70">
+        <v>2003.9385321247255</v>
+      </c>
+      <c r="L20" s="71">
+        <v>0.11735280422599681</v>
+      </c>
+      <c r="M20" s="72">
+        <v>1.4314412512760447E-2</v>
+      </c>
+      <c r="N20" s="72">
+        <v>1.3809999472869094</v>
+      </c>
+      <c r="O20" s="72">
+        <v>842.36952450081696</v>
+      </c>
+      <c r="P20" s="81">
+        <v>5.0047813000546615E-3</v>
+      </c>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="57">
+        <v>3</v>
+      </c>
+      <c r="S20" s="74">
+        <v>2.0005081591304742E-2</v>
+      </c>
+      <c r="T20" s="74">
+        <v>0.36060001207260939</v>
+      </c>
+      <c r="U20" s="74">
+        <v>919.29502314947126</v>
+      </c>
+      <c r="V20" s="75">
+        <v>2.1145330085545755E-3</v>
+      </c>
+      <c r="W20" s="82"/>
+      <c r="X20" s="57">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="76">
+        <v>6.8229129547109718E-2</v>
+      </c>
+      <c r="Z20" s="76">
+        <v>1.2754990166286007</v>
+      </c>
+      <c r="AA20" s="76">
+        <v>903.98754157567009</v>
+      </c>
+      <c r="AB20" s="77">
+        <v>3.8560670498672955E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28">
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="68">
+        <v>3.4312257320502589E-2</v>
+      </c>
+      <c r="F21" s="68">
+        <v>1.7456000023230445</v>
+      </c>
+      <c r="G21" s="68">
+        <v>1077.896293993291</v>
+      </c>
+      <c r="H21" s="88">
+        <v>1.1431805733783884E-2</v>
+      </c>
+      <c r="I21" s="70">
+        <v>2.765195001199304E-2</v>
+      </c>
+      <c r="J21" s="70">
+        <v>4.5225001485960092</v>
+      </c>
+      <c r="K21" s="70">
+        <v>1495.8265552841517</v>
+      </c>
+      <c r="L21" s="71">
+        <v>0.11326327536419911</v>
+      </c>
+      <c r="M21" s="72">
+        <v>1.9389694100797897E-2</v>
+      </c>
+      <c r="N21" s="72">
+        <v>1.0005999229178997</v>
+      </c>
+      <c r="O21" s="72">
+        <v>791.48799890765633</v>
+      </c>
+      <c r="P21" s="81">
+        <v>3.0948571009141723E-3</v>
+      </c>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="57">
+        <v>4</v>
+      </c>
+      <c r="S21" s="74">
+        <v>1.8069671746193776E-2</v>
+      </c>
+      <c r="T21" s="74">
+        <v>0.57779999451668118</v>
+      </c>
+      <c r="U21" s="74">
+        <v>1072.7794579084846</v>
+      </c>
+      <c r="V21" s="75">
+        <v>2.9644069555516683E-3</v>
+      </c>
+      <c r="W21" s="82"/>
+      <c r="X21" s="57">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="76">
+        <v>0.11734308166327267</v>
+      </c>
+      <c r="Z21" s="76">
+        <v>26.584999432088807</v>
+      </c>
+      <c r="AA21" s="76">
+        <v>1246.4599872705087</v>
+      </c>
+      <c r="AB21" s="76">
+        <v>1.8825369984945706</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28">
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="68">
+        <v>4.4695559707439221E-2</v>
+      </c>
+      <c r="F22" s="68">
+        <v>2.5014001039380673</v>
+      </c>
+      <c r="G22" s="68">
+        <v>1243.3079288201316</v>
+      </c>
+      <c r="H22" s="88">
+        <v>1.7538807430397485E-2</v>
+      </c>
+      <c r="I22" s="70">
+        <v>4.1387293285834743E-2</v>
+      </c>
+      <c r="J22" s="70">
+        <v>14.87480039941147</v>
+      </c>
+      <c r="K22" s="70">
+        <v>727.56554610262287</v>
+      </c>
+      <c r="L22" s="71">
+        <v>0.9354212273308482</v>
+      </c>
+      <c r="M22" s="72">
+        <v>1.4198342334656527E-2</v>
+      </c>
+      <c r="N22" s="72">
+        <v>0.96679991656856146</v>
+      </c>
+      <c r="O22" s="72">
+        <v>774.76379124166533</v>
+      </c>
+      <c r="P22" s="81">
+        <v>3.0581570835792604E-3</v>
+      </c>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="57">
+        <v>5</v>
+      </c>
+      <c r="S22" s="74">
+        <v>1.7709767521118972E-2</v>
+      </c>
+      <c r="T22" s="74">
+        <v>1.0748999557108618</v>
+      </c>
+      <c r="U22" s="74">
+        <v>830.64534354503371</v>
+      </c>
+      <c r="V22" s="75">
+        <v>3.5738108754397313E-3</v>
+      </c>
+      <c r="W22" s="82"/>
+      <c r="X22" s="57">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="76">
+        <v>7.6899640125212554E-2</v>
+      </c>
+      <c r="Z22" s="76">
+        <v>0.48099900595843792</v>
+      </c>
+      <c r="AA22" s="76">
+        <v>905.43058950013392</v>
+      </c>
+      <c r="AB22" s="77">
+        <v>3.050852909078472E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28">
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="68">
+        <v>4.6416167019916514E-2</v>
+      </c>
+      <c r="F23" s="68">
+        <v>1.6254000456683571</v>
+      </c>
+      <c r="G23" s="68">
+        <v>1178.3981733315643</v>
+      </c>
+      <c r="H23" s="88">
+        <v>1.4532578760819259E-2</v>
+      </c>
+      <c r="I23" s="70">
+        <v>2.7123482293601554E-2</v>
+      </c>
+      <c r="J23" s="70">
+        <v>6.8579001890611835</v>
+      </c>
+      <c r="K23" s="70">
+        <v>949.33200005182562</v>
+      </c>
+      <c r="L23" s="91">
+        <v>8.6925033049962019E-2</v>
+      </c>
+      <c r="M23" s="72">
+        <v>1.58746576778394E-2</v>
+      </c>
+      <c r="N23" s="72">
+        <v>1.3873000170860905</v>
+      </c>
+      <c r="O23" s="72">
+        <v>798.99731775657915</v>
+      </c>
+      <c r="P23" s="81">
+        <v>3.1480353477366663E-3</v>
+      </c>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="57">
+        <v>6</v>
+      </c>
+      <c r="S23" s="74">
+        <v>2.430778152479271E-2</v>
+      </c>
+      <c r="T23" s="74">
+        <v>0.41399999872737681</v>
+      </c>
+      <c r="U23" s="74">
+        <v>1016.6876368980699</v>
+      </c>
+      <c r="V23" s="75">
+        <v>3.0131203471241985E-3</v>
+      </c>
+      <c r="W23" s="82"/>
+      <c r="X23" s="57">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="76">
+        <v>7.4816587387175171E-2</v>
+      </c>
+      <c r="Z23" s="76">
+        <v>25.649500457802787</v>
+      </c>
+      <c r="AA23" s="76">
+        <v>1165.261931662134</v>
+      </c>
+      <c r="AB23" s="76">
+        <v>2.6696626606834708</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28">
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" s="68">
+        <v>4.0822114328080618E-2</v>
+      </c>
+      <c r="F24" s="68">
+        <v>2.3893999241408892</v>
+      </c>
+      <c r="G24" s="68">
+        <v>1281.0484560434986</v>
+      </c>
+      <c r="H24" s="88">
+        <v>2.1415561832093699E-2</v>
+      </c>
+      <c r="I24" s="70">
+        <v>1.7917946689783526E-2</v>
+      </c>
+      <c r="J24" s="70">
+        <v>1.7153000726466416</v>
+      </c>
+      <c r="K24" s="70">
+        <v>830.35761711478904</v>
+      </c>
+      <c r="L24" s="85">
+        <v>8.3731852462862744E-3</v>
+      </c>
+      <c r="M24" s="72">
+        <v>1.6304186330594723E-2</v>
+      </c>
+      <c r="N24" s="72">
+        <v>1.7935999494511634</v>
+      </c>
+      <c r="O24" s="72">
+        <v>773.11818064537533</v>
+      </c>
+      <c r="P24" s="81">
+        <v>4.9579458137256616E-3</v>
+      </c>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="57">
+        <v>7</v>
+      </c>
+      <c r="S24" s="74">
+        <v>2.1306735331238003E-2</v>
+      </c>
+      <c r="T24" s="74">
+        <v>1.2633998949240777</v>
+      </c>
+      <c r="U24" s="74">
+        <v>959.07040406504609</v>
+      </c>
+      <c r="V24" s="80">
+        <v>1.2284128362257674E-2</v>
+      </c>
+      <c r="W24" s="82"/>
+      <c r="X24" s="57">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="76">
+        <v>6.9351627242898645E-2</v>
+      </c>
+      <c r="Z24" s="76">
+        <v>1.0325002222089097</v>
+      </c>
+      <c r="AA24" s="76">
+        <v>888.01272351731575</v>
+      </c>
+      <c r="AB24" s="77">
+        <v>3.4144266256752598E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28">
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" s="68">
+        <v>3.3785705741388922E-2</v>
+      </c>
+      <c r="F25" s="68">
+        <v>2.1128998923813924</v>
+      </c>
+      <c r="G25" s="68">
+        <v>1082.8316758679437</v>
+      </c>
+      <c r="H25" s="88">
+        <v>1.3415986267629521E-2</v>
+      </c>
+      <c r="I25" s="70">
+        <v>1.9358970719743462E-2</v>
+      </c>
+      <c r="J25" s="70">
+        <v>1.5072999985932256</v>
+      </c>
+      <c r="K25" s="70">
+        <v>772.93336520636035</v>
+      </c>
+      <c r="L25" s="91">
+        <v>1.1264227458378739E-2</v>
+      </c>
+      <c r="M25" s="72">
+        <v>2.2661672323750399E-2</v>
+      </c>
+      <c r="N25" s="72">
+        <v>1.356300003862998</v>
+      </c>
+      <c r="O25" s="72">
+        <v>692.87319737507494</v>
+      </c>
+      <c r="P25" s="81">
+        <v>3.2130927070914694E-3</v>
+      </c>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="57">
+        <v>8</v>
+      </c>
+      <c r="S25" s="74">
+        <v>1.631263975337556E-2</v>
+      </c>
+      <c r="T25" s="74">
+        <v>1.3454000509227626</v>
+      </c>
+      <c r="U25" s="74">
+        <v>803.75124040257811</v>
+      </c>
+      <c r="V25" s="75">
+        <v>3.6732660021228103E-3</v>
+      </c>
+      <c r="W25" s="82"/>
+      <c r="X25" s="57">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="76">
+        <v>0.12247944440731048</v>
+      </c>
+      <c r="Z25" s="76">
+        <v>25.244000426027924</v>
+      </c>
+      <c r="AA25" s="76">
+        <v>2921.5559716672187</v>
+      </c>
+      <c r="AB25" s="93">
+        <v>13.633490416880775</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28">
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="68">
+        <v>4.4332584482472528E-2</v>
+      </c>
+      <c r="F26" s="68">
+        <v>1.4307998981166747</v>
+      </c>
+      <c r="G26" s="68">
+        <v>1415.2493220316367</v>
+      </c>
+      <c r="H26" s="88">
+        <v>2.2578094502185175E-2</v>
+      </c>
+      <c r="I26" s="70">
+        <v>1.7457413825590202E-2</v>
+      </c>
+      <c r="J26" s="70">
+        <v>1.8118000753020169</v>
+      </c>
+      <c r="K26" s="70">
+        <v>754.12751386586604</v>
+      </c>
+      <c r="L26" s="91">
+        <v>1.2344023299162066E-2</v>
+      </c>
+      <c r="M26" s="72">
+        <v>1.6477042074099776E-2</v>
+      </c>
+      <c r="N26" s="72">
+        <v>1.1984000138909323</v>
+      </c>
+      <c r="O26" s="72">
+        <v>755.18438169353465</v>
+      </c>
+      <c r="P26" s="81">
+        <v>5.5321197278370704E-3</v>
+      </c>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="57">
+        <v>9</v>
+      </c>
+      <c r="S26" s="74">
+        <v>1.7142214263262099E-2</v>
+      </c>
+      <c r="T26" s="74">
+        <v>0.57400001196583617</v>
+      </c>
+      <c r="U26" s="74">
+        <v>882.49677478269052</v>
+      </c>
+      <c r="V26" s="75">
+        <v>2.7576842128633761E-3</v>
+      </c>
+      <c r="W26" s="82"/>
+      <c r="X26" s="57">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="76">
+        <v>8.0258348993696618E-2</v>
+      </c>
+      <c r="Z26" s="76">
+        <v>25.592000383767299</v>
+      </c>
+      <c r="AA26" s="76">
+        <v>840.83475916080056</v>
+      </c>
+      <c r="AB26" s="92">
+        <v>0.10423101639281906</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28">
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="89">
+        <v>10</v>
+      </c>
+      <c r="S27" s="74">
+        <v>2.6981657291976918E-2</v>
+      </c>
+      <c r="T27" s="74">
+        <v>0.50820000296880607</v>
+      </c>
+      <c r="U27" s="74">
+        <v>1024.9353443650905</v>
+      </c>
+      <c r="V27" s="75">
+        <v>2.8705078265691686E-3</v>
+      </c>
+      <c r="W27" s="82"/>
+      <c r="X27" s="89">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="76">
+        <v>8.6554804733224966E-2</v>
+      </c>
+      <c r="Z27" s="76">
+        <v>26.797499231179245</v>
+      </c>
+      <c r="AA27" s="76">
+        <v>1839.2827798359026</v>
+      </c>
+      <c r="AB27" s="76">
+        <v>3.3303674231460736</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="94">
+        <f>AVERAGE(E7:E26)</f>
+        <v>9.661483917671565E-2</v>
+      </c>
+      <c r="F28" s="94">
+        <f t="shared" ref="F28:P28" si="0">AVERAGE(F7:F26)</f>
+        <v>10.149649944600647</v>
+      </c>
+      <c r="G28" s="94">
+        <f t="shared" si="0"/>
+        <v>1714.322545339068</v>
+      </c>
+      <c r="H28" s="94">
+        <f t="shared" si="0"/>
+        <v>1.3302470646011888</v>
+      </c>
+      <c r="I28" s="95">
+        <f t="shared" si="0"/>
+        <v>6.9876411525319329E-2</v>
+      </c>
+      <c r="J28" s="95">
+        <f t="shared" si="0"/>
+        <v>10.89947193122498</v>
+      </c>
+      <c r="K28" s="95">
+        <f t="shared" si="0"/>
+        <v>1052.8977120201098</v>
+      </c>
+      <c r="L28" s="95">
+        <f t="shared" si="0"/>
+        <v>1.0351206527443402</v>
+      </c>
+      <c r="M28" s="96">
+        <f t="shared" si="0"/>
+        <v>8.3451803969195854E-2</v>
+      </c>
+      <c r="N28" s="96">
+        <f t="shared" si="0"/>
+        <v>7.4779612065059258</v>
+      </c>
+      <c r="O28" s="96">
+        <f t="shared" si="0"/>
+        <v>1015.0791568147902</v>
+      </c>
+      <c r="P28" s="96">
+        <f t="shared" si="0"/>
+        <v>0.69242373867236406</v>
+      </c>
+      <c r="Q28" s="97"/>
+      <c r="R28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="98">
+        <f>AVERAGE(S7:S27)</f>
+        <v>1.89688277385145E-2</v>
+      </c>
+      <c r="T28" s="98">
+        <f t="shared" ref="T28:V28" si="1">AVERAGE(T7:T27)</f>
+        <v>1.0460050091865014</v>
+      </c>
+      <c r="U28" s="99">
+        <f t="shared" si="1"/>
+        <v>1191.0176285106877</v>
+      </c>
+      <c r="V28" s="99">
+        <f t="shared" si="1"/>
+        <v>6.956713071057186E-3</v>
+      </c>
+      <c r="W28" s="97"/>
+      <c r="X28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="100">
+        <f>AVERAGE(Y7:Y27)</f>
+        <v>7.1131060143403785E-2</v>
+      </c>
+      <c r="Z28" s="100">
+        <f t="shared" ref="Z28:AB28" si="2">AVERAGE(Z7:Z27)</f>
+        <v>10.428824884911592</v>
+      </c>
+      <c r="AA28" s="101">
+        <f t="shared" si="2"/>
+        <v>1111.7573348638193</v>
+      </c>
+      <c r="AB28" s="101">
+        <f t="shared" si="2"/>
+        <v>1.4365045113629105</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="94">
+        <f>STDEV(E7:E26)</f>
+        <v>0.10950435329658442</v>
+      </c>
+      <c r="F29" s="94">
+        <f t="shared" ref="F29:P29" si="3">STDEV(F7:F26)</f>
+        <v>9.466711173457556</v>
+      </c>
+      <c r="G29" s="94">
+        <f t="shared" si="3"/>
+        <v>1161.8597016957672</v>
+      </c>
+      <c r="H29" s="94">
+        <f t="shared" si="3"/>
+        <v>2.8905154737562868</v>
+      </c>
+      <c r="I29" s="95">
+        <f t="shared" si="3"/>
+        <v>9.4069266053101008E-2</v>
+      </c>
+      <c r="J29" s="95">
+        <f t="shared" si="3"/>
+        <v>10.046809679935585</v>
+      </c>
+      <c r="K29" s="95">
+        <f t="shared" si="3"/>
+        <v>496.82250826298286</v>
+      </c>
+      <c r="L29" s="95">
+        <f t="shared" si="3"/>
+        <v>2.0297644833356792</v>
+      </c>
+      <c r="M29" s="96">
+        <f t="shared" si="3"/>
+        <v>0.19571844958579354</v>
+      </c>
+      <c r="N29" s="96">
+        <f t="shared" si="3"/>
+        <v>9.4311365858363754</v>
+      </c>
+      <c r="O29" s="96">
+        <f t="shared" si="3"/>
+        <v>1315.025917589373</v>
+      </c>
+      <c r="P29" s="96">
+        <f t="shared" si="3"/>
+        <v>2.1941008882990407</v>
+      </c>
+      <c r="Q29" s="97"/>
+      <c r="R29" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="99">
+        <f>STDEV(S7:S27)</f>
+        <v>7.7289444927671168E-3</v>
+      </c>
+      <c r="T29" s="99">
+        <f t="shared" ref="T29:V29" si="4">STDEV(T7:T27)</f>
+        <v>1.2353233680200386</v>
+      </c>
+      <c r="U29" s="99">
+        <f t="shared" si="4"/>
+        <v>358.55780497825003</v>
+      </c>
+      <c r="V29" s="99">
+        <f t="shared" si="4"/>
+        <v>8.3174191701880871E-3</v>
+      </c>
+      <c r="W29" s="97"/>
+      <c r="X29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="102">
+        <f>STDEV(Y7:Y27)</f>
+        <v>2.1546499387381818E-2</v>
+      </c>
+      <c r="Z29" s="102">
+        <f t="shared" ref="Z29:AB29" si="5">STDEV(Z7:Z27)</f>
+        <v>12.054556312937288</v>
+      </c>
+      <c r="AA29" s="102">
+        <f t="shared" si="5"/>
+        <v>539.96519195575979</v>
+      </c>
+      <c r="AB29" s="102">
+        <f t="shared" si="5"/>
+        <v>3.3380280639765942</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28">
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="58"/>
+      <c r="S30" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="T30" s="104">
+        <v>0.05</v>
+      </c>
+      <c r="U30" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="V30" s="104">
+        <v>0.05</v>
+      </c>
+      <c r="Y30" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="Z30" s="106">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28">
+      <c r="S31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28">
+      <c r="S32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>